--- a/public/reportTemplates/template.xlsx
+++ b/public/reportTemplates/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgeivangomez/Documents/Projects/DELFINITI/delfiniti-app/public/reportTemplates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEDC170-9199-5949-AB6D-0DC170DBD46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F124595-3F67-CF4A-80D0-F7353D31607A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8600" yWindow="4720" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8600" yWindow="4100" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,7 @@
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" style="1"/>
     <col min="5" max="5" width="24.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" style="1" customWidth="1"/>
   </cols>

--- a/public/reportTemplates/template.xlsx
+++ b/public/reportTemplates/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgeivangomez/Documents/Projects/DELFINITI/delfiniti-app/public/reportTemplates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F124595-3F67-CF4A-80D0-F7353D31607A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D5BAA2-65BC-F743-93E7-1557C5DD19C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8600" yWindow="4100" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,14 +34,14 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Delfiniti de México S.A. de C.V.</t>
+    <t>DELFINITI DE MÉXICO S.A DE C.V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -66,19 +66,32 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FF17365D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,13 +124,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -427,7 +440,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
